--- a/設計書類_レビュー前/ER図.xlsx
+++ b/設計書類_レビュー前/ER図.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\D_Group_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\D_Group_project\設計書類_レビュー前\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Delete</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PK</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -94,10 +90,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Menu_table</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -115,10 +107,6 @@
   </si>
   <si>
     <t>Order_table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Order_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -224,6 +212,30 @@
   </si>
   <si>
     <t>NN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User_del</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Order_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Decition_flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FK</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -662,6 +674,75 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -671,57 +752,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -743,22 +773,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -770,15 +800,6 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -786,15 +807,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -826,59 +838,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>178486</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>109663</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>109663</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線コネクタ 35"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3329459" y="2388798"/>
-          <a:ext cx="748271" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>2721</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>181676</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>68035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>179614</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>173842</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>68035</xdr:rowOff>
     </xdr:to>
@@ -889,7 +856,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3895099" y="2834576"/>
+          <a:off x="4984585" y="2642671"/>
           <a:ext cx="176893" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -916,14 +883,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>5443</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>172852</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>61783</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>5443</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>172852</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>77492</xdr:rowOff>
     </xdr:to>
@@ -934,8 +901,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3802528" y="2799817"/>
-          <a:ext cx="0" cy="540929"/>
+          <a:off x="5160488" y="2636419"/>
+          <a:ext cx="0" cy="535255"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -961,13 +928,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>2721</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>73479</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>73479</xdr:rowOff>
@@ -979,7 +946,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3824094" y="3633270"/>
+          <a:off x="4990357" y="3167661"/>
           <a:ext cx="178254" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1006,10 +973,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>12774</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>60036</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>132977</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>35387</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="236668" cy="217560"/>
     <xdr:sp macro="" textlink="">
@@ -1019,7 +986,59 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3860249" y="3174659"/>
+          <a:off x="4935886" y="3129569"/>
+          <a:ext cx="236668" cy="217560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>140048</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15315</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="236668" cy="217560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4942957" y="2462951"/>
           <a:ext cx="236668" cy="217560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1059,61 +1078,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>18820</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38405</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="236668" cy="217560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="テキスト ボックス 50"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3840193" y="2705405"/>
-          <a:ext cx="236668" cy="217560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>6238</xdr:colOff>
+      <xdr:colOff>33132</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>76558</xdr:rowOff>
+      <xdr:rowOff>18145</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="236668" cy="217560"/>
     <xdr:sp macro="" textlink="">
@@ -1123,7 +1090,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3803323" y="2155914"/>
+          <a:off x="3892438" y="2111404"/>
           <a:ext cx="236668" cy="217560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1164,11 +1131,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>122877</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>70347</xdr:rowOff>
+      <xdr:colOff>119929</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28277</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="236668" cy="217560"/>
+    <xdr:ext cx="138000" cy="217560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="53" name="テキスト ボックス 52"/>
@@ -1176,8 +1143,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3263241" y="2153147"/>
-          <a:ext cx="236668" cy="217560"/>
+          <a:off x="3244129" y="2381512"/>
+          <a:ext cx="138000" cy="217560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1199,7 +1166,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -1217,14 +1184,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>114116</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>60193</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>77382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>481</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>60836</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>78025</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1233,8 +1200,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2146116" y="2013684"/>
-          <a:ext cx="255820" cy="643"/>
+          <a:off x="2130838" y="2191502"/>
+          <a:ext cx="253041" cy="643"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1263,13 +1230,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>60961</xdr:rowOff>
+      <xdr:rowOff>60962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>64654</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80211</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1278,8 +1245,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2146300" y="827579"/>
-          <a:ext cx="0" cy="1190566"/>
+          <a:off x="2131022" y="840150"/>
+          <a:ext cx="0" cy="1354181"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1403,10 +1370,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>159613</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>132916</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>93601</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>54898</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="287258" cy="264047"/>
     <xdr:sp macro="" textlink="">
@@ -1416,7 +1383,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2191613" y="1818552"/>
+          <a:off x="1928045" y="2035157"/>
           <a:ext cx="287258" cy="264047"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1440,6 +1407,293 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>＊</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1949</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>54568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>181243</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="カギ線コネクタ 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3299402" y="2260665"/>
+          <a:ext cx="728869" cy="276737"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>67056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>67056</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線コネクタ 56"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2278380" y="2025396"/>
+          <a:ext cx="99061" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>89535</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>70000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>89535</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線コネクタ 59"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2273535" y="2034000"/>
+          <a:ext cx="0" cy="1195915"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85344</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>79248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>82296</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直線コネクタ 64"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2279904" y="3246120"/>
+          <a:ext cx="1743456" cy="3048"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>32892</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38374</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="148014" cy="217560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="テキスト ボックス 75"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3831928" y="3064446"/>
+          <a:ext cx="148014" cy="217560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>169943</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>27410</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="306992" cy="264047"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="テキスト ボックス 76"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159914" y="1874849"/>
+          <a:ext cx="306992" cy="264047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -1756,8 +2010,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="165" zoomScaleNormal="355" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -1766,130 +2020,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="5" customFormat="1" ht="10.199999999999999" thickTop="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="33" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="26" t="s">
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="26" t="s">
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="39"/>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="39"/>
-      <c r="AW1" s="39"/>
-      <c r="AX1" s="39"/>
-      <c r="AY1" s="39"/>
-      <c r="AZ1" s="39"/>
-      <c r="BA1" s="39"/>
-      <c r="BB1" s="39"/>
-      <c r="BC1" s="40"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="29"/>
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="45"/>
+      <c r="AV1" s="45"/>
+      <c r="AW1" s="45"/>
+      <c r="AX1" s="45"/>
+      <c r="AY1" s="45"/>
+      <c r="AZ1" s="45"/>
+      <c r="BA1" s="45"/>
+      <c r="BB1" s="45"/>
+      <c r="BC1" s="46"/>
     </row>
     <row r="2" spans="1:55" s="5" customFormat="1" ht="10.199999999999999" thickBot="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="41" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="42"/>
-      <c r="AO2" s="42"/>
-      <c r="AP2" s="41" t="s">
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="43"/>
-      <c r="BA2" s="43"/>
-      <c r="BB2" s="43"/>
-      <c r="BC2" s="44"/>
+      <c r="AQ2" s="47"/>
+      <c r="AR2" s="47"/>
+      <c r="AS2" s="47"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="49"/>
+      <c r="BB2" s="49"/>
+      <c r="BC2" s="50"/>
     </row>
     <row r="3" spans="1:55" s="1" customFormat="1" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:55">
@@ -1996,24 +2250,24 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="57"/>
+        <v>9</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="51"/>
+      <c r="N6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="24"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -2037,26 +2291,26 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="57"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="48"/>
+        <v>9</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="21"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -2080,26 +2334,26 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="56"/>
-      <c r="H8" s="57"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="48"/>
+        <v>11</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="21"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
@@ -2127,14 +2381,14 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="O9" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="48"/>
+        <v>10</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="21"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -2162,14 +2416,14 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="O10" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="48"/>
+        <v>10</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="21"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
@@ -2197,14 +2451,14 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="48"/>
+        <v>36</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -2309,13 +2563,13 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="63"/>
+      <c r="N14" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="57"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -2353,14 +2607,14 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="21"/>
+        <v>37</v>
+      </c>
+      <c r="O15" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="44"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -2398,14 +2652,14 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="O16" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="21"/>
+        <v>46</v>
+      </c>
+      <c r="O16" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="44"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
@@ -2443,25 +2697,25 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="21"/>
+        <v>34</v>
+      </c>
+      <c r="O17" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="44"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="60"/>
+      <c r="W17" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
@@ -2490,27 +2744,27 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="O18" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="O18" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="44"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="X18" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="21"/>
+        <v>9</v>
+      </c>
+      <c r="X18" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="44"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
@@ -2530,36 +2784,29 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="21"/>
+      <c r="N19" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="44"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="X19" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="21"/>
+        <v>40</v>
+      </c>
+      <c r="X19" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="44"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
@@ -2579,27 +2826,29 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
       <c r="M20" s="4"/>
+      <c r="N20" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="44"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="X20" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="48"/>
+        <v>41</v>
+      </c>
+      <c r="X20" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="21"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -2619,27 +2868,31 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
+      <c r="N21" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="44"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="X21" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="21"/>
+        <v>18</v>
+      </c>
+      <c r="X21" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="44"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -2659,11 +2912,6 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -2733,13 +2981,13 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-      <c r="W24" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="54"/>
+      <c r="W24" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="60"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
@@ -2777,14 +3025,14 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="X25" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="X25" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Y25" s="47"/>
-      <c r="Z25" s="47"/>
-      <c r="AA25" s="48"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="21"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
@@ -2822,14 +3070,14 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="X26" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="X26" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="Y26" s="47"/>
-      <c r="Z26" s="47"/>
-      <c r="AA26" s="48"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="21"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
@@ -2867,14 +3115,14 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="X27" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="X27" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="Y27" s="47"/>
-      <c r="Z27" s="47"/>
-      <c r="AA27" s="48"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="21"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
@@ -2911,15 +3159,13 @@
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
-      <c r="W28" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="X28" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y28" s="47"/>
-      <c r="Z28" s="47"/>
-      <c r="AA28" s="48"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="21"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
@@ -2956,15 +3202,13 @@
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
-      <c r="W29" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="X29" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y29" s="47"/>
-      <c r="Z29" s="47"/>
-      <c r="AA29" s="48"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="21"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
@@ -3704,23 +3948,12 @@
       <c r="BC54" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="W24:AA24"/>
-    <mergeCell ref="X25:AA25"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="X21:AA21"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="O17:R17"/>
+  <mergeCells count="39">
     <mergeCell ref="W17:AA17"/>
     <mergeCell ref="X18:AA18"/>
     <mergeCell ref="X19:AA19"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="X20:AA20"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="O19:R19"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AT1:BC1"/>
     <mergeCell ref="AB2:AE2"/>
@@ -3728,12 +3961,17 @@
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:BC2"/>
     <mergeCell ref="AF1:AO1"/>
-    <mergeCell ref="O18:R18"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="R1:AA2"/>
     <mergeCell ref="N1:Q2"/>
     <mergeCell ref="O15:R15"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="N14:R14"/>
     <mergeCell ref="X29:AA29"/>
     <mergeCell ref="N6:R6"/>
     <mergeCell ref="O7:R7"/>
@@ -3742,6 +3980,14 @@
     <mergeCell ref="X26:AA26"/>
     <mergeCell ref="X27:AA27"/>
     <mergeCell ref="X28:AA28"/>
+    <mergeCell ref="X20:AA20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="W24:AA24"/>
+    <mergeCell ref="X25:AA25"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="X21:AA21"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O18:R18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions gridLinesSet="0"/>

--- a/設計書類_レビュー前/ER図.xlsx
+++ b/設計書類_レビュー前/ER図.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -240,6 +240,13 @@
   </si>
   <si>
     <t>NN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈴木海偉</t>
+    <rPh sb="0" eb="4">
+      <t>スズキウミイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -674,6 +681,105 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -683,6 +789,15 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -692,105 +807,6 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -798,15 +814,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2010,8 +2017,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="101" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="AT2" sqref="AT2:BC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -2020,130 +2027,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="5" customFormat="1" ht="10.199999999999999" thickTop="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="36" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="29" t="s">
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="29" t="s">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="29"/>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="45"/>
-      <c r="AU1" s="45"/>
-      <c r="AV1" s="45"/>
-      <c r="AW1" s="45"/>
-      <c r="AX1" s="45"/>
-      <c r="AY1" s="45"/>
-      <c r="AZ1" s="45"/>
-      <c r="BA1" s="45"/>
-      <c r="BB1" s="45"/>
-      <c r="BC1" s="46"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
+      <c r="AW1" s="26"/>
+      <c r="AX1" s="26"/>
+      <c r="AY1" s="26"/>
+      <c r="AZ1" s="26"/>
+      <c r="BA1" s="26"/>
+      <c r="BB1" s="26"/>
+      <c r="BC1" s="27"/>
     </row>
     <row r="2" spans="1:55" s="5" customFormat="1" ht="10.199999999999999" thickBot="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="47" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="48"/>
-      <c r="AP2" s="47" t="s">
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="49"/>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49"/>
-      <c r="BA2" s="49"/>
-      <c r="BB2" s="49"/>
-      <c r="BC2" s="50"/>
+      <c r="AQ2" s="28"/>
+      <c r="AR2" s="28"/>
+      <c r="AS2" s="28"/>
+      <c r="AT2" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="30"/>
+      <c r="AW2" s="30"/>
+      <c r="AX2" s="30"/>
+      <c r="AY2" s="30"/>
+      <c r="AZ2" s="30"/>
+      <c r="BA2" s="30"/>
+      <c r="BB2" s="30"/>
+      <c r="BC2" s="31"/>
     </row>
     <row r="3" spans="1:55" s="1" customFormat="1" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:55">
@@ -2252,22 +2261,22 @@
       <c r="E6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="24"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="60"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -2293,11 +2302,11 @@
       <c r="E7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="54"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="51"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -2305,12 +2314,12 @@
       <c r="N7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="21"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="54"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -2336,11 +2345,11 @@
       <c r="E8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="51"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -2348,12 +2357,12 @@
       <c r="N8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="21"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="54"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
@@ -2383,12 +2392,12 @@
       <c r="N9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="O9" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="21"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="54"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -2418,12 +2427,12 @@
       <c r="N10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="19" t="s">
+      <c r="O10" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="21"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="54"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
@@ -2453,12 +2462,12 @@
       <c r="N11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="O11" s="19" t="s">
+      <c r="O11" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="21"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="54"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -2609,12 +2618,12 @@
       <c r="N15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="42" t="s">
+      <c r="O15" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="44"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="24"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -2654,12 +2663,12 @@
       <c r="N16" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="O16" s="42" t="s">
+      <c r="O16" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="44"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="24"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
@@ -2699,23 +2708,23 @@
       <c r="N17" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="O17" s="42" t="s">
+      <c r="O17" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="44"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="24"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="61" t="s">
+      <c r="W17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="63"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="21"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
@@ -2746,12 +2755,12 @@
       <c r="N18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="42" t="s">
+      <c r="O18" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="44"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="24"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -2759,12 +2768,12 @@
       <c r="W18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="X18" s="42" t="s">
+      <c r="X18" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="43"/>
-      <c r="AA18" s="44"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="24"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
@@ -2788,12 +2797,12 @@
       <c r="N19" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="O19" s="42" t="s">
+      <c r="O19" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="44"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="24"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
@@ -2801,12 +2810,12 @@
       <c r="W19" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="X19" s="42" t="s">
+      <c r="X19" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="43"/>
-      <c r="AA19" s="44"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="24"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
@@ -2830,12 +2839,12 @@
       <c r="N20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="O20" s="42" t="s">
+      <c r="O20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="44"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="24"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
@@ -2843,12 +2852,12 @@
       <c r="W20" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="X20" s="19" t="s">
+      <c r="X20" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="21"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="54"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -2874,12 +2883,12 @@
       <c r="N21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="O21" s="42" t="s">
+      <c r="O21" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="44"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="24"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
@@ -2887,12 +2896,12 @@
       <c r="W21" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="X21" s="42" t="s">
+      <c r="X21" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="43"/>
-      <c r="AA21" s="44"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="24"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -2981,13 +2990,13 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-      <c r="W24" s="58" t="s">
+      <c r="W24" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="60"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="62"/>
+      <c r="AA24" s="63"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
@@ -3027,12 +3036,12 @@
       <c r="W25" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="X25" s="19" t="s">
+      <c r="X25" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="21"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="54"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
@@ -3072,12 +3081,12 @@
       <c r="W26" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="X26" s="19" t="s">
+      <c r="X26" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="21"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="54"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
@@ -3117,12 +3126,12 @@
       <c r="W27" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="X27" s="19" t="s">
+      <c r="X27" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="21"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="54"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
@@ -3160,12 +3169,12 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="16"/>
-      <c r="X28" s="19" t="s">
+      <c r="X28" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="21"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="54"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
@@ -3203,12 +3212,12 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="16"/>
-      <c r="X29" s="19" t="s">
+      <c r="X29" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="21"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="54"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
@@ -3949,29 +3958,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="W17:AA17"/>
-    <mergeCell ref="X18:AA18"/>
-    <mergeCell ref="X19:AA19"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AT1:BC1"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AO2"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="AT2:BC2"/>
-    <mergeCell ref="AF1:AO1"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="R1:AA2"/>
-    <mergeCell ref="N1:Q2"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="N14:R14"/>
     <mergeCell ref="X29:AA29"/>
     <mergeCell ref="N6:R6"/>
     <mergeCell ref="O7:R7"/>
@@ -3988,6 +3974,29 @@
     <mergeCell ref="X21:AA21"/>
     <mergeCell ref="O17:R17"/>
     <mergeCell ref="O18:R18"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="R1:AA2"/>
+    <mergeCell ref="N1:Q2"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:BC1"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AO2"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="AT2:BC2"/>
+    <mergeCell ref="AF1:AO1"/>
+    <mergeCell ref="W17:AA17"/>
+    <mergeCell ref="X18:AA18"/>
+    <mergeCell ref="X19:AA19"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="O19:R19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions gridLinesSet="0"/>

--- a/設計書類_レビュー前/ER図.xlsx
+++ b/設計書類_レビュー前/ER図.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FK</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -130,23 +126,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Menu_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Quantity</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Pay_flag</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Payment_table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>User_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -187,22 +171,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Manager</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NN</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Payment_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -223,19 +195,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Order_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>User_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Decition_flag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FK</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -247,6 +207,10 @@
     <rPh sb="0" eb="4">
       <t>スズキウミイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Terminal_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -348,7 +312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -640,12 +604,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -681,6 +689,132 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,130 +824,17 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -843,251 +864,12 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>181676</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>173842</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直線コネクタ 37"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4984585" y="2642671"/>
-          <a:ext cx="176893" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>172852</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>61783</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>172852</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>77492</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直線コネクタ 39"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5160488" y="2636419"/>
-          <a:ext cx="0" cy="535255"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>2721</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>73479</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>73479</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直線コネクタ 43"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4990357" y="3167661"/>
-          <a:ext cx="178254" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>132977</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>35387</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="236668" cy="217560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="テキスト ボックス 49"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4935886" y="3129569"/>
-          <a:ext cx="236668" cy="217560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>140048</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>15315</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="236668" cy="217560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="テキスト ボックス 50"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4942957" y="2462951"/>
-          <a:ext cx="236668" cy="217560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>33132</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>18145</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>167072</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88492</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="236668" cy="217560"/>
     <xdr:sp macro="" textlink="">
@@ -1097,7 +879,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3892438" y="2111404"/>
+          <a:off x="3835961" y="1779473"/>
           <a:ext cx="236668" cy="217560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1138,9 +920,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>119929</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28277</xdr:rowOff>
+      <xdr:colOff>167174</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>109614</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="138000" cy="217560"/>
     <xdr:sp macro="" textlink="">
@@ -1150,7 +932,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3244129" y="2381512"/>
+          <a:off x="3285730" y="1800595"/>
           <a:ext cx="138000" cy="217560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1189,26 +971,26 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114116</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>77382</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>182750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>48126</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>481</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>78025</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>182751</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>48126</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線コネクタ 2"/>
+        <xdr:cNvPr id="5" name="直線コネクタ 4"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2130838" y="2191502"/>
-          <a:ext cx="253041" cy="643"/>
+        <a:xfrm>
+          <a:off x="3301306" y="2004867"/>
+          <a:ext cx="733778" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1232,488 +1014,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>60962</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>80211</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線コネクタ 6"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2131022" y="840150"/>
-          <a:ext cx="0" cy="1354181"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>112395</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>62865</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>62865</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線コネクタ 8"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2124075" y="832485"/>
-          <a:ext cx="251460" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>14869</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>22301</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="236668" cy="217560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2200508" y="665355"/>
-          <a:ext cx="236668" cy="217560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>93601</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>54898</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="287258" cy="264047"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1928045" y="2035157"/>
-          <a:ext cx="287258" cy="264047"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>＊</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1949</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>54568</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>181243</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="カギ線コネクタ 3"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3299402" y="2260665"/>
-          <a:ext cx="728869" cy="276737"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="9525"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>67056</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>67056</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="直線コネクタ 56"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2278380" y="2025396"/>
-          <a:ext cx="99061" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>89535</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>70000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>89535</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="直線コネクタ 59"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2273535" y="2034000"/>
-          <a:ext cx="0" cy="1195915"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>85344</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>79248</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>82296</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="直線コネクタ 64"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2279904" y="3246120"/>
-          <a:ext cx="1743456" cy="3048"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>32892</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38374</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="148014" cy="217560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="テキスト ボックス 75"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3831928" y="3064446"/>
-          <a:ext cx="148014" cy="217560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>169943</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>27410</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="306992" cy="264047"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="テキスト ボックス 76"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2159914" y="1874849"/>
-          <a:ext cx="306992" cy="264047"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>＊</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2017,8 +1317,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="101" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="AT2" sqref="AT2:BC2"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="122" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -2027,132 +1327,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="5" customFormat="1" ht="10.199999999999999" thickTop="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="43" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="25" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="25" t="s">
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="26"/>
-      <c r="AX1" s="26"/>
-      <c r="AY1" s="26"/>
-      <c r="AZ1" s="26"/>
-      <c r="BA1" s="26"/>
-      <c r="BB1" s="26"/>
-      <c r="BC1" s="27"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="54"/>
+      <c r="AZ1" s="54"/>
+      <c r="BA1" s="54"/>
+      <c r="BB1" s="54"/>
+      <c r="BC1" s="55"/>
     </row>
     <row r="2" spans="1:55" s="5" customFormat="1" ht="10.199999999999999" thickBot="1">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="28" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="28" t="s">
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU2" s="30"/>
-      <c r="AV2" s="30"/>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="30"/>
-      <c r="AY2" s="30"/>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="30"/>
-      <c r="BC2" s="31"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU2" s="58"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58"/>
+      <c r="BB2" s="58"/>
+      <c r="BC2" s="59"/>
     </row>
     <row r="3" spans="1:55" s="1" customFormat="1" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:55">
@@ -2261,22 +1561,22 @@
       <c r="E6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="51"/>
+      <c r="F6" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="49"/>
+      <c r="H6" s="50"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="58" t="s">
+      <c r="N6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="60"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="24"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -2300,13 +1600,13 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
+        <v>25</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -2314,16 +1614,23 @@
       <c r="N7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="52" t="s">
+      <c r="O7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="54"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="21"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
+      <c r="W7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="30"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
@@ -2343,13 +1650,13 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51"/>
+        <v>26</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -2357,16 +1664,25 @@
       <c r="N8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="52" t="s">
+      <c r="O8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="54"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="21"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
+      <c r="W8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="X8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="21"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
@@ -2392,24 +1708,28 @@
       <c r="N9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="54"/>
+      <c r="O9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="21"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
+      <c r="W9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="X9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="21"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
@@ -2427,24 +1747,28 @@
       <c r="N10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="54"/>
+      <c r="O10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="21"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
+      <c r="W10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="X10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="21"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
@@ -2460,26 +1784,28 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="54"/>
+        <v>30</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="21"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
@@ -2507,11 +1833,6 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="3"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
@@ -2545,14 +1866,6 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
@@ -2572,27 +1885,17 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="55" t="s">
+      <c r="N14" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="57"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="53"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
@@ -2615,29 +1918,26 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="17" t="s">
+      <c r="N15" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="24"/>
+      <c r="O15" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="68"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
+      <c r="W15" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="63"/>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
@@ -2661,28 +1961,27 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="O16" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="24"/>
+        <v>17</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="27"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
+      <c r="W16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="X16" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="27"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
@@ -2705,31 +2004,28 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O17" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="24"/>
+      <c r="N17" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="27"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
+      <c r="W17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="X17" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="27"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
@@ -2752,28 +2048,19 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="O18" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="24"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-      <c r="W18" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="X18" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="24"/>
+      <c r="W18" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="X18" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="21"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
@@ -2794,28 +2081,19 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="24"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="X19" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="24"/>
+        <v>17</v>
+      </c>
+      <c r="X19" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="27"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
@@ -2829,35 +2107,17 @@
       <c r="AL19" s="3"/>
       <c r="BC19" s="12"/>
     </row>
-    <row r="20" spans="1:55" ht="10.199999999999999" thickBot="1">
+    <row r="20" spans="1:55">
       <c r="A20" s="11"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O20" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="24"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
-      <c r="W20" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="X20" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y20" s="53"/>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="54"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -2871,7 +2131,7 @@
       <c r="AL20" s="3"/>
       <c r="BC20" s="12"/>
     </row>
-    <row r="21" spans="1:55" ht="10.199999999999999" thickBot="1">
+    <row r="21" spans="1:55">
       <c r="A21" s="11"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2880,28 +2140,10 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="O21" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="24"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
-      <c r="W21" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="X21" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="24"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -2941,7 +2183,7 @@
       <c r="AL22" s="3"/>
       <c r="BC22" s="12"/>
     </row>
-    <row r="23" spans="1:55" ht="10.199999999999999" thickBot="1">
+    <row r="23" spans="1:55">
       <c r="A23" s="11"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2972,7 +2214,7 @@
       <c r="AL23" s="3"/>
       <c r="BC23" s="12"/>
     </row>
-    <row r="24" spans="1:55" ht="11.4" customHeight="1" thickBot="1">
+    <row r="24" spans="1:55" ht="11.4" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2990,13 +2232,6 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-      <c r="W24" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="X24" s="62"/>
-      <c r="Y24" s="62"/>
-      <c r="Z24" s="62"/>
-      <c r="AA24" s="63"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
@@ -3010,7 +2245,7 @@
       <c r="AL24" s="3"/>
       <c r="BC24" s="12"/>
     </row>
-    <row r="25" spans="1:55" ht="11.4" customHeight="1" thickBot="1">
+    <row r="25" spans="1:55" ht="11.4" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3033,15 +2268,6 @@
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
-      <c r="W25" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="X25" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="54"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
@@ -3055,7 +2281,7 @@
       <c r="AL25" s="3"/>
       <c r="BC25" s="12"/>
     </row>
-    <row r="26" spans="1:55" ht="10.199999999999999" thickBot="1">
+    <row r="26" spans="1:55">
       <c r="A26" s="11"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3078,15 +2304,6 @@
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
-      <c r="W26" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="X26" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y26" s="53"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="54"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
@@ -3100,7 +2317,7 @@
       <c r="AL26" s="3"/>
       <c r="BC26" s="12"/>
     </row>
-    <row r="27" spans="1:55" ht="10.199999999999999" thickBot="1">
+    <row r="27" spans="1:55">
       <c r="A27" s="11"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3123,15 +2340,6 @@
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
-      <c r="W27" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="X27" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="54"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
@@ -3145,7 +2353,7 @@
       <c r="AL27" s="3"/>
       <c r="BC27" s="12"/>
     </row>
-    <row r="28" spans="1:55" ht="10.199999999999999" thickBot="1">
+    <row r="28" spans="1:55">
       <c r="A28" s="11"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3168,13 +2376,6 @@
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y28" s="53"/>
-      <c r="Z28" s="53"/>
-      <c r="AA28" s="54"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
@@ -3188,7 +2389,7 @@
       <c r="AL28" s="3"/>
       <c r="BC28" s="12"/>
     </row>
-    <row r="29" spans="1:55" ht="10.199999999999999" thickBot="1">
+    <row r="29" spans="1:55">
       <c r="A29" s="11"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3211,13 +2412,11 @@
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="53"/>
-      <c r="AA29" s="54"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
@@ -3957,34 +3156,11 @@
       <c r="BC54" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="X29:AA29"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="X26:AA26"/>
-    <mergeCell ref="X27:AA27"/>
-    <mergeCell ref="X28:AA28"/>
-    <mergeCell ref="X20:AA20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="W24:AA24"/>
-    <mergeCell ref="X25:AA25"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="X21:AA21"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="R1:AA2"/>
-    <mergeCell ref="N1:Q2"/>
+  <mergeCells count="34">
+    <mergeCell ref="W15:AA15"/>
+    <mergeCell ref="X16:AA16"/>
+    <mergeCell ref="X17:AA17"/>
     <mergeCell ref="O15:R15"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="N14:R14"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AT1:BC1"/>
     <mergeCell ref="AB2:AE2"/>
@@ -3992,11 +3168,29 @@
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:BC2"/>
     <mergeCell ref="AF1:AO1"/>
-    <mergeCell ref="W17:AA17"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="R1:AA2"/>
+    <mergeCell ref="N1:Q2"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="X11:AA11"/>
     <mergeCell ref="X18:AA18"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="O17:R17"/>
     <mergeCell ref="X19:AA19"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="O19:R19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions gridLinesSet="0"/>

--- a/設計書類_レビュー前/ER図.xlsx
+++ b/設計書類_レビュー前/ER図.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -211,6 +211,38 @@
   </si>
   <si>
     <t>Terminal_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Order_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Terminal_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Menu_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Quantity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NN</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -653,7 +685,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -689,145 +721,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -836,6 +751,135 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -867,9 +911,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>167072</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>88492</xdr:rowOff>
+      <xdr:colOff>160826</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>13541</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="236668" cy="217560"/>
     <xdr:sp macro="" textlink="">
@@ -879,7 +923,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3835961" y="1779473"/>
+          <a:off x="3783449" y="2386984"/>
           <a:ext cx="236668" cy="217560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -920,9 +964,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>167174</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>109614</xdr:rowOff>
+      <xdr:colOff>148436</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="138000" cy="217560"/>
     <xdr:sp macro="" textlink="">
@@ -932,7 +976,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3285730" y="1800595"/>
+          <a:off x="3227666" y="2389368"/>
           <a:ext cx="138000" cy="217560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -971,16 +1015,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>182750</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>48126</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1619</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>73110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>182751</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>48126</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1620</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>73110</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -989,8 +1033,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3301306" y="2004867"/>
-          <a:ext cx="733778" cy="0"/>
+          <a:off x="3261980" y="2583962"/>
+          <a:ext cx="724525" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1014,6 +1058,487 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>182277</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>58071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>182319</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60773</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線コネクタ 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3281700" y="2005145"/>
+          <a:ext cx="364680" cy="2702"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>2339</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>56098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>2339</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63111</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3648719" y="2003172"/>
+          <a:ext cx="0" cy="916270"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>182319</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>60773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>182319</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>60773</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線コネクタ 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3646380" y="2917104"/>
+          <a:ext cx="364638" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>109602</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>5219</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="236668" cy="217560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3215013" y="1837151"/>
+          <a:ext cx="236668" cy="217560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>10439</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>10439</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="236668" cy="217560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3846535" y="2760946"/>
+          <a:ext cx="236668" cy="217560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>71284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>71284</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線コネクタ 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2164080" y="2159164"/>
+          <a:ext cx="213360" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線コネクタ 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2164080" y="836295"/>
+          <a:ext cx="0" cy="1322070"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>150495</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>69847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>69847</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線コネクタ 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2162175" y="839467"/>
+          <a:ext cx="215265" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>155429</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3030</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="287258" cy="264047"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2142914" y="1919814"/>
+          <a:ext cx="287258" cy="264047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>＊</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="236668" cy="217560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2231572" y="674914"/>
+          <a:ext cx="236668" cy="217560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1317,8 +1842,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="122" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="310" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -1327,132 +1852,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="5" customFormat="1" ht="10.199999999999999" thickTop="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="42" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="35" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="35" t="s">
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="54"/>
-      <c r="AV1" s="54"/>
-      <c r="AW1" s="54"/>
-      <c r="AX1" s="54"/>
-      <c r="AY1" s="54"/>
-      <c r="AZ1" s="54"/>
-      <c r="BA1" s="54"/>
-      <c r="BB1" s="54"/>
-      <c r="BC1" s="55"/>
+      <c r="AQ1" s="30"/>
+      <c r="AR1" s="30"/>
+      <c r="AS1" s="30"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31"/>
+      <c r="AZ1" s="31"/>
+      <c r="BA1" s="31"/>
+      <c r="BB1" s="31"/>
+      <c r="BC1" s="32"/>
     </row>
     <row r="2" spans="1:55" s="5" customFormat="1" ht="10.199999999999999" thickBot="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="56" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="56" t="s">
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="58" t="s">
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AU2" s="58"/>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58"/>
-      <c r="BB2" s="58"/>
-      <c r="BC2" s="59"/>
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="35"/>
+      <c r="AW2" s="35"/>
+      <c r="AX2" s="35"/>
+      <c r="AY2" s="35"/>
+      <c r="AZ2" s="35"/>
+      <c r="BA2" s="35"/>
+      <c r="BB2" s="35"/>
+      <c r="BC2" s="36"/>
     </row>
     <row r="3" spans="1:55" s="1" customFormat="1" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:55">
@@ -1561,22 +2086,22 @@
       <c r="E6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="24"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="65"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -1602,11 +2127,11 @@
       <c r="E7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1614,23 +2139,23 @@
       <c r="N7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="21"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="59"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="28" t="s">
+      <c r="W7" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="30"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="68"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
@@ -1652,11 +2177,11 @@
       <c r="E8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="50"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="56"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1664,12 +2189,12 @@
       <c r="N8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="21"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="59"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
@@ -1677,12 +2202,12 @@
       <c r="W8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="X8" s="19" t="s">
+      <c r="X8" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="21"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="59"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
@@ -1708,12 +2233,12 @@
       <c r="N9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="O9" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="21"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="59"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -1721,12 +2246,12 @@
       <c r="W9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="X9" s="19" t="s">
+      <c r="X9" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="21"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="59"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
@@ -1747,12 +2272,12 @@
       <c r="N10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="19" t="s">
+      <c r="O10" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="21"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="59"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
@@ -1760,15 +2285,14 @@
       <c r="W10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="X10" s="19" t="s">
+      <c r="X10" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="21"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="59"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
-      <c r="AD10" s="4"/>
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
@@ -1786,26 +2310,25 @@
       <c r="N11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="O11" s="19" t="s">
+      <c r="O11" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="21"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="59"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="16"/>
-      <c r="X11" s="19" t="s">
+      <c r="X11" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="21"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="59"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-      <c r="AD11" s="4"/>
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
@@ -1832,7 +2355,6 @@
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
-      <c r="AD12" s="3"/>
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
@@ -1885,19 +2407,17 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="51" t="s">
+      <c r="N14" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="53"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="62"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
@@ -1918,26 +2438,19 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="O15" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="68"/>
+      <c r="N15" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="72"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-      <c r="W15" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="63"/>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
@@ -1960,28 +2473,19 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="O16" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="27"/>
+      <c r="N16" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="72"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="X16" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="27"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
@@ -2004,28 +2508,19 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="O17" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="27"/>
+      <c r="N17" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="O17" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="72"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="X17" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="27"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
@@ -2048,19 +2543,19 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
+      <c r="N18" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="72"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-      <c r="W18" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="X18" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="21"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
@@ -2081,19 +2576,26 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="M19" s="4"/>
+      <c r="N19" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="29"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
-      <c r="W19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="X19" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="27"/>
+      <c r="W19" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="23"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
@@ -2107,17 +2609,35 @@
       <c r="AL19" s="3"/>
       <c r="BC19" s="12"/>
     </row>
-    <row r="20" spans="1:55">
+    <row r="20" spans="1:55" ht="10.199999999999999" thickBot="1">
       <c r="A20" s="11"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="M20" s="4"/>
+      <c r="N20" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="26"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
+      <c r="W20" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="X20" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="26"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -2131,7 +2651,7 @@
       <c r="AL20" s="3"/>
       <c r="BC20" s="12"/>
     </row>
-    <row r="21" spans="1:55">
+    <row r="21" spans="1:55" ht="10.199999999999999" thickBot="1">
       <c r="A21" s="11"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2140,10 +2660,28 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
+      <c r="N21" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O21" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="26"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
+      <c r="W21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="X21" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="26"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -2157,7 +2695,7 @@
       <c r="AL21" s="3"/>
       <c r="BC21" s="12"/>
     </row>
-    <row r="22" spans="1:55">
+    <row r="22" spans="1:55" ht="10.199999999999999" thickBot="1">
       <c r="A22" s="11"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2170,6 +2708,15 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
+      <c r="W22" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="X22" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="59"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -2183,7 +2730,7 @@
       <c r="AL22" s="3"/>
       <c r="BC22" s="12"/>
     </row>
-    <row r="23" spans="1:55">
+    <row r="23" spans="1:55" ht="10.199999999999999" thickBot="1">
       <c r="A23" s="11"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2201,6 +2748,15 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
+      <c r="W23" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="X23" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="26"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -2259,11 +2815,6 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
@@ -2413,10 +2964,10 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="64"/>
-      <c r="Z29" s="64"/>
-      <c r="AA29" s="64"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
@@ -3156,41 +3707,45 @@
       <c r="BC54" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="W15:AA15"/>
-    <mergeCell ref="X16:AA16"/>
-    <mergeCell ref="X17:AA17"/>
+  <mergeCells count="38">
+    <mergeCell ref="X23:AA23"/>
     <mergeCell ref="O15:R15"/>
-    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="X22:AA22"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="R1:AA2"/>
+    <mergeCell ref="N1:Q2"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="N6:R6"/>
     <mergeCell ref="AT1:BC1"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AF2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:BC2"/>
     <mergeCell ref="AF1:AO1"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="R1:AA2"/>
-    <mergeCell ref="N1:Q2"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="W19:AA19"/>
+    <mergeCell ref="X20:AA20"/>
+    <mergeCell ref="X21:AA21"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="X9:AA9"/>
     <mergeCell ref="X10:AA10"/>
     <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="X18:AA18"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="X19:AA19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions gridLinesSet="0"/>

--- a/設計書類_レビュー前/ER図.xlsx
+++ b/設計書類_レビュー前/ER図.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="分類名称" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -210,18 +210,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Order_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Terminal_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Order_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Terminal_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Menu_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -239,10 +235,6 @@
   </si>
   <si>
     <t>FK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NN</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -685,7 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -725,6 +717,144 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -734,15 +864,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -752,134 +873,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1842,144 +1837,144 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9:AA9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="16384" width="2.6640625" style="2"/>
+    <col min="1" max="16384" width="2.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="5" customFormat="1" ht="10.199999999999999" thickTop="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:55" s="5" customFormat="1" ht="11.25" thickTop="1">
+      <c r="A1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="48" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="30" t="s">
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="30" t="s">
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="AQ1" s="30"/>
-      <c r="AR1" s="30"/>
-      <c r="AS1" s="30"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="31"/>
-      <c r="AV1" s="31"/>
-      <c r="AW1" s="31"/>
-      <c r="AX1" s="31"/>
-      <c r="AY1" s="31"/>
-      <c r="AZ1" s="31"/>
-      <c r="BA1" s="31"/>
-      <c r="BB1" s="31"/>
-      <c r="BC1" s="32"/>
-    </row>
-    <row r="2" spans="1:55" s="5" customFormat="1" ht="10.199999999999999" thickBot="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="33" t="s">
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="61"/>
+    </row>
+    <row r="2" spans="1:55" s="5" customFormat="1" ht="11.25" thickBot="1">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="33" t="s">
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="35" t="s">
+      <c r="AQ2" s="62"/>
+      <c r="AR2" s="62"/>
+      <c r="AS2" s="62"/>
+      <c r="AT2" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="35"/>
-      <c r="BB2" s="35"/>
-      <c r="BC2" s="36"/>
-    </row>
-    <row r="3" spans="1:55" s="1" customFormat="1" ht="10.199999999999999" thickTop="1"/>
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="64"/>
+      <c r="AW2" s="64"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="64"/>
+      <c r="BA2" s="64"/>
+      <c r="BB2" s="64"/>
+      <c r="BC2" s="65"/>
+    </row>
+    <row r="3" spans="1:55" s="1" customFormat="1" ht="11.25" thickTop="1"/>
     <row r="4" spans="1:55">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
@@ -2037,7 +2032,7 @@
       <c r="BB4" s="9"/>
       <c r="BC4" s="10"/>
     </row>
-    <row r="5" spans="1:55" ht="10.199999999999999" thickBot="1">
+    <row r="5" spans="1:55" ht="11.25" thickBot="1">
       <c r="A5" s="11"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2078,7 +2073,7 @@
       <c r="AL5" s="6"/>
       <c r="BC5" s="12"/>
     </row>
-    <row r="6" spans="1:55" ht="10.199999999999999" thickBot="1">
+    <row r="6" spans="1:55" ht="11.25" thickBot="1">
       <c r="A6" s="11"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2086,22 +2081,22 @@
       <c r="E6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="63" t="s">
+      <c r="N6" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="65"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="59"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -2119,7 +2114,7 @@
       <c r="AL6" s="3"/>
       <c r="BC6" s="12"/>
     </row>
-    <row r="7" spans="1:55" ht="10.199999999999999" thickBot="1">
+    <row r="7" spans="1:55" ht="11.25" thickBot="1">
       <c r="A7" s="11"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2127,11 +2122,11 @@
       <c r="E7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -2139,23 +2134,23 @@
       <c r="N7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="57" t="s">
+      <c r="O7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="59"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="30"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="66" t="s">
+      <c r="W7" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="68"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="33"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
@@ -2169,7 +2164,7 @@
       <c r="AL7" s="3"/>
       <c r="BC7" s="12"/>
     </row>
-    <row r="8" spans="1:55" ht="10.199999999999999" thickBot="1">
+    <row r="8" spans="1:55" ht="11.25" thickBot="1">
       <c r="A8" s="11"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2177,11 +2172,11 @@
       <c r="E8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -2189,12 +2184,12 @@
       <c r="N8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="57" t="s">
+      <c r="O8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="59"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="30"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
@@ -2202,12 +2197,12 @@
       <c r="W8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="X8" s="57" t="s">
+      <c r="X8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="59"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="30"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
@@ -2221,7 +2216,7 @@
       <c r="AL8" s="3"/>
       <c r="BC8" s="12"/>
     </row>
-    <row r="9" spans="1:55" ht="10.199999999999999" thickBot="1">
+    <row r="9" spans="1:55" ht="11.25" thickBot="1">
       <c r="A9" s="11"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2233,12 +2228,12 @@
       <c r="N9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="57" t="s">
+      <c r="O9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="59"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="30"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -2246,12 +2241,12 @@
       <c r="W9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="X9" s="57" t="s">
+      <c r="X9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="59"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="30"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
@@ -2260,7 +2255,7 @@
       <c r="AL9" s="3"/>
       <c r="BC9" s="12"/>
     </row>
-    <row r="10" spans="1:55" ht="10.199999999999999" thickBot="1">
+    <row r="10" spans="1:55" ht="11.25" thickBot="1">
       <c r="A10" s="11"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2272,12 +2267,12 @@
       <c r="N10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="57" t="s">
+      <c r="O10" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="59"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="30"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
@@ -2285,12 +2280,12 @@
       <c r="W10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="X10" s="57" t="s">
+      <c r="X10" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="59"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="30"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AJ10" s="3"/>
@@ -2298,7 +2293,7 @@
       <c r="AL10" s="3"/>
       <c r="BC10" s="12"/>
     </row>
-    <row r="11" spans="1:55" ht="10.199999999999999" thickBot="1">
+    <row r="11" spans="1:55" ht="11.25" thickBot="1">
       <c r="A11" s="11"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2310,23 +2305,23 @@
       <c r="N11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="O11" s="57" t="s">
+      <c r="O11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="59"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="30"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="16"/>
-      <c r="X11" s="57" t="s">
+      <c r="X11" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="59"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="30"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AJ11" s="3"/>
@@ -2393,7 +2388,7 @@
       <c r="AL13" s="3"/>
       <c r="BC13" s="12"/>
     </row>
-    <row r="14" spans="1:55" ht="10.8" customHeight="1" thickBot="1">
+    <row r="14" spans="1:55" ht="10.9" customHeight="1" thickBot="1">
       <c r="A14" s="11"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2407,13 +2402,13 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="60" t="s">
+      <c r="N14" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="62"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="39"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -2424,7 +2419,7 @@
       <c r="AL14" s="3"/>
       <c r="BC14" s="12"/>
     </row>
-    <row r="15" spans="1:55" ht="10.199999999999999" thickBot="1">
+    <row r="15" spans="1:55" ht="11.25" thickBot="1">
       <c r="A15" s="11"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2438,15 +2433,15 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="O15" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="72"/>
+      <c r="N15" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="27"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -2459,7 +2454,7 @@
       <c r="AL15" s="3"/>
       <c r="BC15" s="12"/>
     </row>
-    <row r="16" spans="1:55" ht="10.199999999999999" thickBot="1">
+    <row r="16" spans="1:55" ht="11.25" thickBot="1">
       <c r="A16" s="11"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2473,15 +2468,15 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="O16" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="72"/>
+      <c r="N16" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="27"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
@@ -2494,7 +2489,7 @@
       <c r="AL16" s="3"/>
       <c r="BC16" s="12"/>
     </row>
-    <row r="17" spans="1:55" ht="10.199999999999999" thickBot="1">
+    <row r="17" spans="1:55" ht="11.25" thickBot="1">
       <c r="A17" s="11"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2508,15 +2503,15 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="O17" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="72"/>
+      <c r="N17" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="27"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -2529,7 +2524,7 @@
       <c r="AL17" s="3"/>
       <c r="BC17" s="12"/>
     </row>
-    <row r="18" spans="1:55" ht="10.199999999999999" customHeight="1" thickBot="1">
+    <row r="18" spans="1:55" ht="10.15" customHeight="1" thickBot="1">
       <c r="A18" s="11"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2543,15 +2538,15 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="O18" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="72"/>
+      <c r="N18" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="O18" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="27"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -2569,7 +2564,7 @@
       <c r="AL18" s="3"/>
       <c r="BC18" s="12"/>
     </row>
-    <row r="19" spans="1:55" ht="10.8" customHeight="1" thickBot="1">
+    <row r="19" spans="1:55" ht="10.9" customHeight="1" thickBot="1">
       <c r="A19" s="11"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2579,23 +2574,23 @@
       <c r="N19" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="O19" s="27" t="s">
+      <c r="O19" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="29"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="72"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
-      <c r="W19" s="21" t="s">
+      <c r="W19" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="23"/>
+      <c r="X19" s="68"/>
+      <c r="Y19" s="68"/>
+      <c r="Z19" s="68"/>
+      <c r="AA19" s="69"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
@@ -2609,7 +2604,7 @@
       <c r="AL19" s="3"/>
       <c r="BC19" s="12"/>
     </row>
-    <row r="20" spans="1:55" ht="10.199999999999999" thickBot="1">
+    <row r="20" spans="1:55" ht="11.25" thickBot="1">
       <c r="A20" s="11"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2619,12 +2614,12 @@
       <c r="N20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="24" t="s">
+      <c r="O20" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="26"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="24"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
@@ -2632,12 +2627,12 @@
       <c r="W20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="X20" s="24" t="s">
+      <c r="X20" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="26"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="24"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -2651,7 +2646,7 @@
       <c r="AL20" s="3"/>
       <c r="BC20" s="12"/>
     </row>
-    <row r="21" spans="1:55" ht="10.199999999999999" thickBot="1">
+    <row r="21" spans="1:55" ht="11.25" thickBot="1">
       <c r="A21" s="11"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2663,12 +2658,12 @@
       <c r="N21" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="O21" s="24" t="s">
+      <c r="O21" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="26"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="24"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
@@ -2676,12 +2671,12 @@
       <c r="W21" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="X21" s="24" t="s">
+      <c r="X21" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="26"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="24"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -2695,7 +2690,7 @@
       <c r="AL21" s="3"/>
       <c r="BC21" s="12"/>
     </row>
-    <row r="22" spans="1:55" ht="10.199999999999999" thickBot="1">
+    <row r="22" spans="1:55" ht="11.25" thickBot="1">
       <c r="A22" s="11"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2711,12 +2706,12 @@
       <c r="W22" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="X22" s="57" t="s">
+      <c r="X22" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="Y22" s="58"/>
-      <c r="Z22" s="58"/>
-      <c r="AA22" s="59"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="30"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -2730,7 +2725,7 @@
       <c r="AL22" s="3"/>
       <c r="BC22" s="12"/>
     </row>
-    <row r="23" spans="1:55" ht="10.199999999999999" thickBot="1">
+    <row r="23" spans="1:55">
       <c r="A23" s="11"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2748,15 +2743,11 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
-      <c r="W23" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="X23" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="26"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="73"/>
+      <c r="Y23" s="73"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="73"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -2770,7 +2761,7 @@
       <c r="AL23" s="3"/>
       <c r="BC23" s="12"/>
     </row>
-    <row r="24" spans="1:55" ht="11.4" customHeight="1">
+    <row r="24" spans="1:55" ht="11.45" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2801,7 +2792,7 @@
       <c r="AL24" s="3"/>
       <c r="BC24" s="12"/>
     </row>
-    <row r="25" spans="1:55" ht="11.4" customHeight="1">
+    <row r="25" spans="1:55" ht="11.45" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3708,13 +3699,21 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="X23:AA23"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="X22:AA22"/>
-    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AT1:BC1"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AO2"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="AT2:BC2"/>
+    <mergeCell ref="AF1:AO1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="R1:AA2"/>
+    <mergeCell ref="N1:Q2"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="N6:R6"/>
     <mergeCell ref="W7:AA7"/>
     <mergeCell ref="X8:AA8"/>
     <mergeCell ref="O21:R21"/>
@@ -3726,26 +3725,18 @@
     <mergeCell ref="O7:R7"/>
     <mergeCell ref="O8:R8"/>
     <mergeCell ref="O9:R9"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="R1:AA2"/>
-    <mergeCell ref="N1:Q2"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="AT1:BC1"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AO2"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="AT2:BC2"/>
-    <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="W19:AA19"/>
     <mergeCell ref="X20:AA20"/>
     <mergeCell ref="X21:AA21"/>
     <mergeCell ref="O19:R19"/>
-    <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="X23:AA23"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="X22:AA22"/>
+    <mergeCell ref="O20:R20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions gridLinesSet="0"/>

--- a/設計書類_レビュー前/ER図.xlsx
+++ b/設計書類_レビュー前/ER図.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="分類名称" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">分類名称!$3:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">分類名称!#REF!</definedName>
   </definedNames>
   <calcPr calcId="92512"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -41,14 +41,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>システムID</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ER図</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
       <t>ブンルイ</t>
@@ -66,87 +58,23 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>User_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>User_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Password</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NN</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Menu_table</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>User_table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Menu_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Menu_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Order_table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FK</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Menu_pay</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Menu_del</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Inventory</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Pay_flag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Payment_table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Pay</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NN</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -171,38 +99,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Payment_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Payment_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>User_del</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Decition_flag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>鈴木海偉</t>
     <rPh sb="0" eb="4">
       <t>スズキウミイ</t>
@@ -210,15 +106,99 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>PK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ER図</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>システムID</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Menu_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Menu_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Menu_pay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Menu_del</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Inventory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User_del</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Order_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Order_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>NN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Terminal_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Menu_id</t>
+    <t>FK</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -226,15 +206,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PK</t>
+    <t>Decition_flag</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NN</t>
+    <t>Payment_table</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FK</t>
+    <t>Payment_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Payment_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pay_flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Time</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -686,9 +678,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -710,15 +699,126 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -729,6 +829,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -737,144 +867,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -913,12 +905,12 @@
     <xdr:ext cx="236668" cy="217560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="テキスト ボックス 51"/>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3783449" y="2386984"/>
+          <a:off x="3818426" y="2360501"/>
           <a:ext cx="236668" cy="217560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -966,12 +958,12 @@
     <xdr:ext cx="138000" cy="217560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="テキスト ボックス 52"/>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3227666" y="2389368"/>
+          <a:off x="3257396" y="2362885"/>
           <a:ext cx="138000" cy="217560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1023,13 +1015,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線コネクタ 4"/>
+        <xdr:cNvPr id="18" name="直線コネクタ 17"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3261980" y="2583962"/>
-          <a:ext cx="724525" cy="0"/>
+          <a:off x="3293459" y="2557230"/>
+          <a:ext cx="731521" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1055,247 +1047,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>182277</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>58071</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>182319</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>60773</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線コネクタ 14"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3281700" y="2005145"/>
-          <a:ext cx="364680" cy="2702"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>2339</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>56098</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>2339</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>63111</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線コネクタ 18"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3648719" y="2003172"/>
-          <a:ext cx="0" cy="916270"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>182319</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>60773</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>182319</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>60773</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線コネクタ 26"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3646380" y="2917104"/>
-          <a:ext cx="364638" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>109602</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>5219</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="236668" cy="217560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3215013" y="1837151"/>
-          <a:ext cx="236668" cy="217560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>10439</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>10439</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="236668" cy="217560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3846535" y="2760946"/>
-          <a:ext cx="236668" cy="217560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -1309,7 +1060,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直線コネクタ 33"/>
+        <xdr:cNvPr id="20" name="直線コネクタ 19"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1354,7 +1105,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="直線コネクタ 38"/>
+        <xdr:cNvPr id="21" name="直線コネクタ 20"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1399,7 +1150,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="直線コネクタ 45"/>
+        <xdr:cNvPr id="22" name="直線コネクタ 21"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1439,12 +1190,12 @@
     <xdr:ext cx="287258" cy="264047"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="テキスト ボックス 54"/>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2142914" y="1919814"/>
+          <a:off x="2167109" y="1961370"/>
           <a:ext cx="287258" cy="264047"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1491,12 +1242,402 @@
     <xdr:ext cx="236668" cy="217560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="テキスト ボックス 55"/>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2231572" y="674914"/>
+          <a:off x="2205446" y="672737"/>
+          <a:ext cx="236668" cy="217560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>160826</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>13541</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="236668" cy="217560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3818426" y="2360501"/>
+          <a:ext cx="236668" cy="217560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>148436</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="138000" cy="217560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3257396" y="2362885"/>
+          <a:ext cx="138000" cy="217560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1619</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>73110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1620</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>73110</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線コネクタ 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3293459" y="2557230"/>
+          <a:ext cx="731521" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>71284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>71284</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線コネクタ 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2164080" y="2159164"/>
+          <a:ext cx="213360" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線コネクタ 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2164080" y="836295"/>
+          <a:ext cx="0" cy="1322070"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>150495</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>69847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>69847</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線コネクタ 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2162175" y="839467"/>
+          <a:ext cx="215265" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>155429</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3030</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="287258" cy="264047"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2167109" y="1961370"/>
+          <a:ext cx="287258" cy="264047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>＊</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="236668" cy="217560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2205446" y="672737"/>
           <a:ext cx="236668" cy="217560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1837,266 +1978,268 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9:AA9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16:R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="2"/>
+    <col min="1" max="16384" width="2.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="5" customFormat="1" ht="11.25" thickTop="1">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:55" s="4" customFormat="1" ht="10.199999999999999" thickTop="1">
+      <c r="A1" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="25">
+        <v>44550</v>
+      </c>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="26"/>
+    </row>
+    <row r="2" spans="1:55" s="4" customFormat="1" ht="10.199999999999999" thickBot="1">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="60"/>
-      <c r="AU1" s="60"/>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="60"/>
-      <c r="AY1" s="60"/>
-      <c r="AZ1" s="60"/>
-      <c r="BA1" s="60"/>
-      <c r="BB1" s="60"/>
-      <c r="BC1" s="61"/>
-    </row>
-    <row r="2" spans="1:55" s="5" customFormat="1" ht="11.25" thickBot="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ2" s="62"/>
-      <c r="AR2" s="62"/>
-      <c r="AS2" s="62"/>
-      <c r="AT2" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64"/>
-      <c r="AW2" s="64"/>
-      <c r="AX2" s="64"/>
-      <c r="AY2" s="64"/>
-      <c r="AZ2" s="64"/>
-      <c r="BA2" s="64"/>
-      <c r="BB2" s="64"/>
-      <c r="BC2" s="65"/>
-    </row>
-    <row r="3" spans="1:55" s="1" customFormat="1" ht="11.25" thickTop="1"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU2" s="29"/>
+      <c r="AV2" s="29"/>
+      <c r="AW2" s="29"/>
+      <c r="AX2" s="29"/>
+      <c r="AY2" s="29"/>
+      <c r="AZ2" s="29"/>
+      <c r="BA2" s="29"/>
+      <c r="BB2" s="29"/>
+      <c r="BC2" s="30"/>
+    </row>
+    <row r="3" spans="1:55" s="1" customFormat="1" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:55">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="9"/>
-      <c r="AN4" s="9"/>
-      <c r="AO4" s="9"/>
-      <c r="AP4" s="9"/>
-      <c r="AQ4" s="9"/>
-      <c r="AR4" s="9"/>
-      <c r="AS4" s="9"/>
-      <c r="AT4" s="9"/>
-      <c r="AU4" s="9"/>
-      <c r="AV4" s="9"/>
-      <c r="AW4" s="9"/>
-      <c r="AX4" s="9"/>
-      <c r="AY4" s="9"/>
-      <c r="AZ4" s="9"/>
-      <c r="BA4" s="9"/>
-      <c r="BB4" s="9"/>
-      <c r="BC4" s="10"/>
-    </row>
-    <row r="5" spans="1:55" ht="11.25" thickBot="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="6"/>
-      <c r="BC5" s="12"/>
-    </row>
-    <row r="6" spans="1:55" ht="11.25" thickBot="1">
-      <c r="A6" s="11"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="9"/>
+    </row>
+    <row r="5" spans="1:55" ht="10.199999999999999" thickBot="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="BC5" s="11"/>
+    </row>
+    <row r="6" spans="1:55" ht="10.199999999999999" thickBot="1">
+      <c r="A6" s="10"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="36"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="59"/>
+      <c r="N6" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="54"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -2112,45 +2255,45 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
-      <c r="BC6" s="12"/>
-    </row>
-    <row r="7" spans="1:55" ht="11.25" thickBot="1">
-      <c r="A7" s="11"/>
+      <c r="BC6" s="11"/>
+    </row>
+    <row r="7" spans="1:55" ht="10.199999999999999" thickBot="1">
+      <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
+      <c r="E7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="50"/>
+      <c r="H7" s="51"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="30"/>
+      <c r="N7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="24"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="33"/>
+      <c r="W7" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="57"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
@@ -2162,47 +2305,47 @@
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
-      <c r="BC7" s="12"/>
-    </row>
-    <row r="8" spans="1:55" ht="11.25" thickBot="1">
-      <c r="A8" s="11"/>
+      <c r="BC7" s="11"/>
+    </row>
+    <row r="8" spans="1:55" ht="10.199999999999999" thickBot="1">
+      <c r="A8" s="10"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
+      <c r="E8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="50"/>
+      <c r="H8" s="51"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="O8" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="30"/>
+      <c r="N8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="24"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="X8" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="30"/>
+      <c r="W8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="X8" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="24"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
@@ -2214,10 +2357,10 @@
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
-      <c r="BC8" s="12"/>
-    </row>
-    <row r="9" spans="1:55" ht="11.25" thickBot="1">
-      <c r="A9" s="11"/>
+      <c r="BC8" s="11"/>
+    </row>
+    <row r="9" spans="1:55" ht="10.199999999999999" thickBot="1">
+      <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2225,38 +2368,38 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="30"/>
+      <c r="N9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="24"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="X9" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="30"/>
+      <c r="W9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="24"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AJ9" s="3"/>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
-      <c r="BC9" s="12"/>
-    </row>
-    <row r="10" spans="1:55" ht="11.25" thickBot="1">
-      <c r="A10" s="11"/>
+      <c r="BC9" s="11"/>
+    </row>
+    <row r="10" spans="1:55" ht="10.199999999999999" thickBot="1">
+      <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2264,37 +2407,37 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="30"/>
+      <c r="N10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="24"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="X10" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="30"/>
+      <c r="W10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="24"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
-      <c r="BC10" s="12"/>
-    </row>
-    <row r="11" spans="1:55" ht="11.25" thickBot="1">
-      <c r="A11" s="11"/>
+      <c r="BC10" s="11"/>
+    </row>
+    <row r="11" spans="1:55" ht="10.199999999999999" thickBot="1">
+      <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2302,35 +2445,35 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="28" t="s">
+      <c r="N11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="30"/>
+      <c r="O11" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="30"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="24"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
-      <c r="BC11" s="12"/>
+      <c r="BC11" s="11"/>
     </row>
     <row r="12" spans="1:55">
-      <c r="A12" s="11"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2343,20 +2486,20 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
       <c r="Z12" s="3"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
-      <c r="BC12" s="12"/>
+      <c r="BC12" s="11"/>
     </row>
     <row r="13" spans="1:55" ht="12" customHeight="1" thickBot="1">
-      <c r="A13" s="11"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2378,18 +2521,18 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
       <c r="Z13" s="3"/>
-      <c r="AA13" s="4"/>
+      <c r="AA13" s="21"/>
       <c r="AJ13" s="3"/>
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
-      <c r="BC13" s="12"/>
-    </row>
-    <row r="14" spans="1:55" ht="10.9" customHeight="1" thickBot="1">
-      <c r="A14" s="11"/>
+      <c r="BC13" s="11"/>
+    </row>
+    <row r="14" spans="1:55" ht="10.95" customHeight="1" thickBot="1">
+      <c r="A14" s="10"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2402,13 +2545,13 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="39"/>
+      <c r="N14" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="63"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -2417,10 +2560,10 @@
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
-      <c r="BC14" s="12"/>
-    </row>
-    <row r="15" spans="1:55" ht="11.25" thickBot="1">
-      <c r="A15" s="11"/>
+      <c r="BC14" s="11"/>
+    </row>
+    <row r="15" spans="1:55" ht="10.199999999999999" thickBot="1">
+      <c r="A15" s="10"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2433,15 +2576,15 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="O15" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="27"/>
+      <c r="N15" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="73"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -2452,10 +2595,10 @@
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
-      <c r="BC15" s="12"/>
-    </row>
-    <row r="16" spans="1:55" ht="11.25" thickBot="1">
-      <c r="A16" s="11"/>
+      <c r="BC15" s="11"/>
+    </row>
+    <row r="16" spans="1:55" ht="10.199999999999999" thickBot="1">
+      <c r="A16" s="10"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2468,18 +2611,18 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="O16" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
+      <c r="N16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
       <c r="V16" s="3"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
@@ -2487,10 +2630,10 @@
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
-      <c r="BC16" s="12"/>
-    </row>
-    <row r="17" spans="1:55" ht="11.25" thickBot="1">
-      <c r="A17" s="11"/>
+      <c r="BC16" s="11"/>
+    </row>
+    <row r="17" spans="1:55" ht="10.199999999999999" thickBot="1">
+      <c r="A17" s="10"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2503,15 +2646,15 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="O17" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="27"/>
+      <c r="N17" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="73"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -2522,10 +2665,10 @@
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
-      <c r="BC17" s="12"/>
-    </row>
-    <row r="18" spans="1:55" ht="10.15" customHeight="1" thickBot="1">
-      <c r="A18" s="11"/>
+      <c r="BC17" s="11"/>
+    </row>
+    <row r="18" spans="1:55" ht="10.199999999999999" customHeight="1" thickBot="1">
+      <c r="A18" s="10"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2538,15 +2681,15 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="O18" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="27"/>
+      <c r="N18" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="73"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -2562,35 +2705,35 @@
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
-      <c r="BC18" s="12"/>
-    </row>
-    <row r="19" spans="1:55" ht="10.9" customHeight="1" thickBot="1">
-      <c r="A19" s="11"/>
+      <c r="BC18" s="11"/>
+    </row>
+    <row r="19" spans="1:55" ht="10.95" customHeight="1" thickBot="1">
+      <c r="A19" s="10"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="O19" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="X19" s="68"/>
-      <c r="Y19" s="68"/>
-      <c r="Z19" s="68"/>
-      <c r="AA19" s="69"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="66"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
@@ -2602,40 +2745,40 @@
       <c r="AJ19" s="3"/>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
-      <c r="BC19" s="12"/>
-    </row>
-    <row r="20" spans="1:55" ht="11.25" thickBot="1">
-      <c r="A20" s="11"/>
+      <c r="BC19" s="11"/>
+    </row>
+    <row r="20" spans="1:55" ht="10.199999999999999" thickBot="1">
+      <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="O20" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="X20" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="X20" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="60"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
@@ -2644,42 +2787,42 @@
       <c r="AJ20" s="3"/>
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
-      <c r="BC20" s="12"/>
-    </row>
-    <row r="21" spans="1:55" ht="11.25" thickBot="1">
-      <c r="A21" s="11"/>
+      <c r="BC20" s="11"/>
+    </row>
+    <row r="21" spans="1:55" ht="10.199999999999999" thickBot="1">
+      <c r="A21" s="10"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="O21" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="X21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="X21" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="60"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
@@ -2688,33 +2831,33 @@
       <c r="AJ21" s="3"/>
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
-      <c r="BC21" s="12"/>
-    </row>
-    <row r="22" spans="1:55" ht="11.25" thickBot="1">
-      <c r="A22" s="11"/>
+      <c r="BC21" s="11"/>
+    </row>
+    <row r="22" spans="1:55" ht="10.199999999999999" thickBot="1">
+      <c r="A22" s="10"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="X22" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
@@ -2723,34 +2866,34 @@
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
-      <c r="BC22" s="12"/>
+      <c r="BC22" s="11"/>
     </row>
     <row r="23" spans="1:55">
-      <c r="A23" s="11"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="73"/>
-      <c r="Y23" s="73"/>
-      <c r="Z23" s="73"/>
-      <c r="AA23" s="73"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="70"/>
+      <c r="Y23" s="70"/>
+      <c r="Z23" s="70"/>
+      <c r="AA23" s="70"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
@@ -2759,19 +2902,19 @@
       <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
-      <c r="BC23" s="12"/>
-    </row>
-    <row r="24" spans="1:55" ht="11.45" customHeight="1">
-      <c r="A24" s="11"/>
+      <c r="BC23" s="11"/>
+    </row>
+    <row r="24" spans="1:55" ht="11.4" customHeight="1">
+      <c r="A24" s="10"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -2790,19 +2933,19 @@
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
-      <c r="BC24" s="12"/>
-    </row>
-    <row r="25" spans="1:55" ht="11.45" customHeight="1">
-      <c r="A25" s="11"/>
+      <c r="BC24" s="11"/>
+    </row>
+    <row r="25" spans="1:55" ht="11.4" customHeight="1">
+      <c r="A25" s="10"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -2821,10 +2964,10 @@
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
-      <c r="BC25" s="12"/>
+      <c r="BC25" s="11"/>
     </row>
     <row r="26" spans="1:55">
-      <c r="A26" s="11"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -2838,7 +2981,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="4"/>
+      <c r="O26" s="21"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
@@ -2857,10 +3000,10 @@
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
-      <c r="BC26" s="12"/>
+      <c r="BC26" s="11"/>
     </row>
     <row r="27" spans="1:55">
-      <c r="A27" s="11"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2874,7 +3017,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="4"/>
+      <c r="O27" s="21"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
@@ -2893,10 +3036,10 @@
       <c r="AJ27" s="3"/>
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
-      <c r="BC27" s="12"/>
+      <c r="BC27" s="11"/>
     </row>
     <row r="28" spans="1:55">
-      <c r="A28" s="11"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2910,7 +3053,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="4"/>
+      <c r="O28" s="21"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
@@ -2929,10 +3072,10 @@
       <c r="AJ28" s="3"/>
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
-      <c r="BC28" s="12"/>
+      <c r="BC28" s="11"/>
     </row>
     <row r="29" spans="1:55">
-      <c r="A29" s="11"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -2946,7 +3089,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="4"/>
+      <c r="O29" s="21"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
@@ -2955,10 +3098,10 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
@@ -2970,10 +3113,10 @@
       <c r="AJ29" s="3"/>
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
-      <c r="BC29" s="12"/>
+      <c r="BC29" s="11"/>
     </row>
     <row r="30" spans="1:55">
-      <c r="A30" s="11"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -2987,7 +3130,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="4"/>
+      <c r="O30" s="21"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
@@ -3006,10 +3149,10 @@
       <c r="AJ30" s="3"/>
       <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
-      <c r="BC30" s="12"/>
+      <c r="BC30" s="11"/>
     </row>
     <row r="31" spans="1:55">
-      <c r="A31" s="11"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -3023,7 +3166,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="4"/>
+      <c r="O31" s="21"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
@@ -3042,10 +3185,10 @@
       <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
-      <c r="BC31" s="12"/>
+      <c r="BC31" s="11"/>
     </row>
     <row r="32" spans="1:55">
-      <c r="A32" s="11"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -3059,7 +3202,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="4"/>
+      <c r="O32" s="21"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
@@ -3078,10 +3221,10 @@
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
-      <c r="BC32" s="12"/>
+      <c r="BC32" s="11"/>
     </row>
     <row r="33" spans="1:55">
-      <c r="A33" s="11"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -3091,21 +3234,21 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
       <c r="V33" s="3"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="21"/>
+      <c r="AD33" s="21"/>
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
@@ -3114,10 +3257,10 @@
       <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
       <c r="AL33" s="3"/>
-      <c r="BC33" s="12"/>
+      <c r="BC33" s="11"/>
     </row>
     <row r="34" spans="1:55">
-      <c r="A34" s="11"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -3127,26 +3270,26 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="21"/>
+      <c r="AB34" s="21"/>
+      <c r="AC34" s="21"/>
+      <c r="AD34" s="21"/>
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
       <c r="AG34" s="3"/>
@@ -3155,10 +3298,10 @@
       <c r="AJ34" s="3"/>
       <c r="AK34" s="3"/>
       <c r="AL34" s="3"/>
-      <c r="BC34" s="12"/>
+      <c r="BC34" s="11"/>
     </row>
     <row r="35" spans="1:55">
-      <c r="A35" s="11"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -3168,26 +3311,26 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-      <c r="AD35" s="4"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="21"/>
+      <c r="AC35" s="21"/>
+      <c r="AD35" s="21"/>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
       <c r="AG35" s="3"/>
@@ -3196,10 +3339,10 @@
       <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
-      <c r="BC35" s="12"/>
+      <c r="BC35" s="11"/>
     </row>
     <row r="36" spans="1:55">
-      <c r="A36" s="11"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -3209,26 +3352,26 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
-      <c r="AD36" s="4"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="21"/>
+      <c r="AC36" s="21"/>
+      <c r="AD36" s="21"/>
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
       <c r="AG36" s="3"/>
@@ -3237,10 +3380,10 @@
       <c r="AJ36" s="3"/>
       <c r="AK36" s="3"/>
       <c r="AL36" s="3"/>
-      <c r="BC36" s="12"/>
+      <c r="BC36" s="11"/>
     </row>
     <row r="37" spans="1:55">
-      <c r="A37" s="11"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -3250,26 +3393,26 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
-      <c r="AD37" s="4"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="21"/>
+      <c r="AC37" s="21"/>
+      <c r="AD37" s="21"/>
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
@@ -3278,10 +3421,10 @@
       <c r="AJ37" s="3"/>
       <c r="AK37" s="3"/>
       <c r="AL37" s="3"/>
-      <c r="BC37" s="12"/>
+      <c r="BC37" s="11"/>
     </row>
     <row r="38" spans="1:55">
-      <c r="A38" s="11"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -3302,9 +3445,9 @@
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
@@ -3319,10 +3462,10 @@
       <c r="AJ38" s="3"/>
       <c r="AK38" s="3"/>
       <c r="AL38" s="3"/>
-      <c r="BC38" s="12"/>
+      <c r="BC38" s="11"/>
     </row>
     <row r="39" spans="1:55">
-      <c r="A39" s="11"/>
+      <c r="A39" s="10"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -3360,10 +3503,10 @@
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
-      <c r="BC39" s="12"/>
+      <c r="BC39" s="11"/>
     </row>
     <row r="40" spans="1:55">
-      <c r="A40" s="11"/>
+      <c r="A40" s="10"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -3401,10 +3544,10 @@
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
-      <c r="BC40" s="12"/>
+      <c r="BC40" s="11"/>
     </row>
     <row r="41" spans="1:55">
-      <c r="A41" s="11"/>
+      <c r="A41" s="10"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -3442,10 +3585,10 @@
       <c r="AJ41" s="3"/>
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
-      <c r="BC41" s="12"/>
+      <c r="BC41" s="11"/>
     </row>
     <row r="42" spans="1:55">
-      <c r="A42" s="11"/>
+      <c r="A42" s="10"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -3483,10 +3626,10 @@
       <c r="AJ42" s="3"/>
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
-      <c r="BC42" s="12"/>
+      <c r="BC42" s="11"/>
     </row>
     <row r="43" spans="1:55">
-      <c r="A43" s="11"/>
+      <c r="A43" s="10"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -3524,10 +3667,10 @@
       <c r="AJ43" s="3"/>
       <c r="AK43" s="3"/>
       <c r="AL43" s="3"/>
-      <c r="BC43" s="12"/>
+      <c r="BC43" s="11"/>
     </row>
     <row r="44" spans="1:55">
-      <c r="A44" s="11"/>
+      <c r="A44" s="10"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -3565,10 +3708,10 @@
       <c r="AJ44" s="3"/>
       <c r="AK44" s="3"/>
       <c r="AL44" s="3"/>
-      <c r="BC44" s="12"/>
+      <c r="BC44" s="11"/>
     </row>
     <row r="45" spans="1:55">
-      <c r="A45" s="11"/>
+      <c r="A45" s="10"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -3606,99 +3749,126 @@
       <c r="AJ45" s="3"/>
       <c r="AK45" s="3"/>
       <c r="AL45" s="3"/>
-      <c r="BC45" s="12"/>
+      <c r="BC45" s="11"/>
     </row>
     <row r="46" spans="1:55">
-      <c r="A46" s="11"/>
-      <c r="BC46" s="12"/>
+      <c r="A46" s="10"/>
+      <c r="BC46" s="11"/>
     </row>
     <row r="47" spans="1:55">
-      <c r="A47" s="11"/>
-      <c r="BC47" s="12"/>
+      <c r="A47" s="10"/>
+      <c r="BC47" s="11"/>
     </row>
     <row r="48" spans="1:55">
-      <c r="A48" s="11"/>
-      <c r="BC48" s="12"/>
+      <c r="A48" s="10"/>
+      <c r="BC48" s="11"/>
     </row>
     <row r="49" spans="1:55">
-      <c r="A49" s="11"/>
-      <c r="BC49" s="12"/>
+      <c r="A49" s="10"/>
+      <c r="BC49" s="11"/>
     </row>
     <row r="50" spans="1:55">
-      <c r="A50" s="11"/>
-      <c r="BC50" s="12"/>
+      <c r="A50" s="10"/>
+      <c r="BC50" s="11"/>
     </row>
     <row r="51" spans="1:55">
-      <c r="A51" s="11"/>
-      <c r="BC51" s="12"/>
+      <c r="A51" s="10"/>
+      <c r="BC51" s="11"/>
     </row>
     <row r="52" spans="1:55">
-      <c r="A52" s="11"/>
-      <c r="BC52" s="12"/>
+      <c r="A52" s="10"/>
+      <c r="BC52" s="11"/>
     </row>
     <row r="53" spans="1:55">
-      <c r="A53" s="11"/>
-      <c r="BC53" s="12"/>
+      <c r="A53" s="10"/>
+      <c r="BC53" s="11"/>
     </row>
     <row r="54" spans="1:55">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="14"/>
-      <c r="W54" s="14"/>
-      <c r="X54" s="14"/>
-      <c r="Y54" s="14"/>
-      <c r="Z54" s="14"/>
-      <c r="AA54" s="14"/>
-      <c r="AB54" s="14"/>
-      <c r="AC54" s="14"/>
-      <c r="AD54" s="14"/>
-      <c r="AE54" s="14"/>
-      <c r="AF54" s="14"/>
-      <c r="AG54" s="14"/>
-      <c r="AH54" s="14"/>
-      <c r="AI54" s="14"/>
-      <c r="AJ54" s="14"/>
-      <c r="AK54" s="14"/>
-      <c r="AL54" s="14"/>
-      <c r="AM54" s="14"/>
-      <c r="AN54" s="14"/>
-      <c r="AO54" s="14"/>
-      <c r="AP54" s="14"/>
-      <c r="AQ54" s="14"/>
-      <c r="AR54" s="14"/>
-      <c r="AS54" s="14"/>
-      <c r="AT54" s="14"/>
-      <c r="AU54" s="14"/>
-      <c r="AV54" s="14"/>
-      <c r="AW54" s="14"/>
-      <c r="AX54" s="14"/>
-      <c r="AY54" s="14"/>
-      <c r="AZ54" s="14"/>
-      <c r="BA54" s="14"/>
-      <c r="BB54" s="14"/>
-      <c r="BC54" s="15"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="13"/>
+      <c r="Y54" s="13"/>
+      <c r="Z54" s="13"/>
+      <c r="AA54" s="13"/>
+      <c r="AB54" s="13"/>
+      <c r="AC54" s="13"/>
+      <c r="AD54" s="13"/>
+      <c r="AE54" s="13"/>
+      <c r="AF54" s="13"/>
+      <c r="AG54" s="13"/>
+      <c r="AH54" s="13"/>
+      <c r="AI54" s="13"/>
+      <c r="AJ54" s="13"/>
+      <c r="AK54" s="13"/>
+      <c r="AL54" s="13"/>
+      <c r="AM54" s="13"/>
+      <c r="AN54" s="13"/>
+      <c r="AO54" s="13"/>
+      <c r="AP54" s="13"/>
+      <c r="AQ54" s="13"/>
+      <c r="AR54" s="13"/>
+      <c r="AS54" s="13"/>
+      <c r="AT54" s="13"/>
+      <c r="AU54" s="13"/>
+      <c r="AV54" s="13"/>
+      <c r="AW54" s="13"/>
+      <c r="AX54" s="13"/>
+      <c r="AY54" s="13"/>
+      <c r="AZ54" s="13"/>
+      <c r="BA54" s="13"/>
+      <c r="BB54" s="13"/>
+      <c r="BC54" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="X23:AA23"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="X22:AA22"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="W19:AA19"/>
+    <mergeCell ref="X20:AA20"/>
+    <mergeCell ref="X21:AA21"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="R1:AA2"/>
+    <mergeCell ref="N1:Q2"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="N6:R6"/>
     <mergeCell ref="X10:AA10"/>
     <mergeCell ref="X11:AA11"/>
     <mergeCell ref="AT1:BC1"/>
@@ -3708,35 +3878,8 @@
     <mergeCell ref="AT2:BC2"/>
     <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="R1:AA2"/>
-    <mergeCell ref="N1:Q2"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="N6:R6"/>
     <mergeCell ref="W7:AA7"/>
     <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="W19:AA19"/>
-    <mergeCell ref="X20:AA20"/>
-    <mergeCell ref="X21:AA21"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="X23:AA23"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="X22:AA22"/>
-    <mergeCell ref="O20:R20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions gridLinesSet="0"/>
